--- a/sheet01.xlsx
+++ b/sheet01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Unis Will\Session H23\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Unis Will\Projet Perso\Barcode\git\Projet_UPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37A6B9-0D31-4020-A9F5-152749DCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3DE77-D7D1-4058-8E85-6A89067F2F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="2150" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RB-Lyn-316</t>
-  </si>
-  <si>
     <t>RB-Ftr-145</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>RB-Sct-476</t>
+  </si>
+  <si>
+    <t>RB-Ard-112</t>
   </si>
 </sst>
 </file>
@@ -364,34 +364,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sheet01.xlsx
+++ b/sheet01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Unis Will\Projet Perso\Barcode\git\Projet_UPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3DE77-D7D1-4058-8E85-6A89067F2F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1548D-5EBE-4BB9-A7CF-D7A6B15F137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2150" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61305" yWindow="1200" windowWidth="21165" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>RB-Ftr-145</t>
+    <t>RB-Ard-112</t>
   </si>
   <si>
-    <t xml:space="preserve">RB-Lyn-17
-</t>
+    <t>RB-Ras-19</t>
   </si>
   <si>
-    <t xml:space="preserve"> RB-Lyn-74</t>
-  </si>
-  <si>
-    <t>RB-Sct-476</t>
-  </si>
-  <si>
-    <t>RB-Ard-112</t>
+    <t xml:space="preserve">RB-Dim-03
+</t>
   </si>
 </sst>
 </file>
@@ -361,37 +355,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sheet01.xlsx
+++ b/sheet01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Unis Will\Projet Perso\Barcode\git\Projet_UPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Unis Will\Session H23\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1548D-5EBE-4BB9-A7CF-D7A6B15F137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37A6B9-0D31-4020-A9F5-152749DCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61305" yWindow="1200" windowWidth="21165" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RB-Ard-112</t>
+    <t>RB-Lyn-316</t>
   </si>
   <si>
-    <t>RB-Ras-19</t>
+    <t>RB-Ftr-145</t>
   </si>
   <si>
-    <t xml:space="preserve">RB-Dim-03
+    <t xml:space="preserve">RB-Lyn-17
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RB-Lyn-74</t>
+  </si>
+  <si>
+    <t>RB-Sct-476</t>
   </si>
 </sst>
 </file>
@@ -355,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -378,6 +384,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
